--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -5064,58 +5064,58 @@
         <v>1.227326475109377</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5283,7 +5283,7 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.375467247323534</v>
+        <v>5.375467247323535</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1</v>
@@ -5298,13 +5298,13 @@
         <v>1.034181513762397</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J44" s="4" t="n">
         <v>1.006136411113432</v>
@@ -6716,7 +6716,7 @@
         <v>0.12572812425559</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02970225324481433</v>
+        <v>0.02970225324481432</v>
       </c>
       <c r="G2" s="34" t="n">
         <v>0.02176321615225114</v>
@@ -6779,10 +6779,10 @@
         <v>0.9090382676449865</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5298922244373061</v>
+        <v>0.5298922244373059</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.4623782223232621</v>
+        <v>0.4623782223232623</v>
       </c>
       <c r="H3" s="34" t="n">
         <v>0.8296776284995077</v>
@@ -6843,10 +6843,10 @@
         <v>0.9450240253505573</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6637589115575122</v>
+        <v>0.6637589115575119</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.6012308524147164</v>
+        <v>0.6012308524147165</v>
       </c>
       <c r="H4" s="34" t="n">
         <v>0.9471031611010139</v>
@@ -6907,10 +6907,10 @@
         <v>0.9853757075029587</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8672893270504712</v>
+        <v>0.8672893270504709</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7955714677752801</v>
+        <v>0.7955714677752802</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0.9810629665495246</v>
@@ -6971,10 +6971,10 @@
         <v>0.9853757075029587</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9333847045058437</v>
+        <v>0.9333847045058434</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8915686839954104</v>
+        <v>0.8915686839954107</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0.9920727022732508</v>
@@ -7002,7 +7002,7 @@
         <v>1.014841336543703</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.064843534710118</v>
+        <v>1.064843534710119</v>
       </c>
       <c r="S6" s="22" t="n">
         <v>1.111914283004398</v>
@@ -7038,7 +7038,7 @@
         <v>0.993908667990362</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9913479540139319</v>
+        <v>0.9913479540139322</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7102,7 +7102,7 @@
         <v>0.9969836204203297</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.995948499162063</v>
+        <v>0.9959484991620632</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7166,7 +7166,7 @@
         <v>0.9977836056883409</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9970806349599873</v>
+        <v>0.9970806349599876</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7230,7 +7230,7 @@
         <v>0.9995910732152955</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9994888937703762</v>
+        <v>0.9994888937703764</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>1</v>

--- a/Process Results/Unified_IBNP_AMH.xlsx
+++ b/Process Results/Unified_IBNP_AMH.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.12572812425559</v>
+        <v>0.235427504247767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06995979754219074</v>
+        <v>0.08390270434082496</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.06214402029746731</v>
+        <v>0.06008786157366396</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.0898973634905272</v>
+        <v>0.123715224875874</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9090382676449864</v>
+        <v>0.9214394062379603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8095717474759504</v>
+        <v>0.827634679531303</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5765082205517937</v>
+        <v>0.5966834670000389</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8564266382540259</v>
+        <v>0.8720216186312786</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9450240253505571</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9404261911227609</v>
+        <v>0.9533769867473917</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6860394807113662</v>
+        <v>0.6996029907503019</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9427195021274652</v>
+        <v>0.9717455319907154</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9853757075029587</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9808531044934358</v>
+        <v>0.9913799546895679</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.8581227516848513</v>
+        <v>0.8718195800229223</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.9831092046864637</v>
+        <v>0.991107797320178</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9853757075029587</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9923226773793956</v>
+        <v>0.9913799546895679</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9749717509578073</v>
+        <v>0.9860130502054665</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9888369912908822</v>
+        <v>0.991107797320178</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3920,17 +3920,17 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9924703240896061</v>
+        <v>0.9928232695275808</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3958,17 +3958,17 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9952076127546776</v>
+        <v>0.9951928662926579</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3996,17 +3996,17 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9983425792242128</v>
+        <v>0.9983146563935685</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9991697997892703</v>
+        <v>0.9991727769701108</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
@@ -4833,10 +4833,10 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v/>
+        <v>2.117064647641234</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.117708405756796</v>
+        <v>1.622558459422283</v>
       </c>
       <c r="D38" s="4" t="n">
         <v>1</v>
@@ -4908,19 +4908,19 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>2.117064647641234</v>
+        <v/>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.622558459422283</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1</v>
+        <v>1.056514409568917</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1</v>
+        <v>0.8548742496770763</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>1</v>
@@ -4983,67 +4983,67 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v/>
+        <v>15.37636363636364</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1</v>
+        <v>1.227326475109377</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.056514409568917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>0.8548742496770763</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="V40" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W40" t="n">
         <v/>
@@ -5058,64 +5058,64 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>15.37636363636364</v>
+        <v/>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.227326475109377</v>
+        <v>1.228765501339814</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>2.890658281772999</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5136,10 +5136,10 @@
         <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.228765501339814</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>2.890658281772999</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4" t="n">
         <v>1</v>
@@ -5208,7 +5208,7 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>5.375467247323535</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1</v>
@@ -5220,19 +5220,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1</v>
+        <v>1.034181513762397</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1</v>
+        <v>1.006136411113432</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>1</v>
@@ -5283,19 +5283,19 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>5.375467247323535</v>
+        <v/>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.034181513762397</v>
+        <v>2.1858924395947</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5307,31 +5307,31 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.006136411113432</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S44" t="n">
         <v/>
@@ -5367,10 +5367,10 @@
         <v/>
       </c>
       <c r="E45" s="4" t="n">
-        <v/>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>2.1858924395947</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>0.9999999999999999</v>
@@ -5439,43 +5439,43 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v/>
+        <v>1.078155981493721</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.036015325670498</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v/>
@@ -5511,22 +5511,22 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>1.324452572005108</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.078155981493721</v>
+        <v>2.985252457923679</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1</v>
+        <v>1.00374796154751</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.036015325670498</v>
+        <v>1</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1</v>
+        <v>1.013640895675352</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>1</v>
@@ -5583,25 +5583,25 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>2.685169842584921</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.324452572005108</v>
+        <v>1.322795994502258</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>2.985252457923679</v>
+        <v>2.232256833266185</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.00374796154751</v>
+        <v>1</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1</v>
+        <v>1.01967303435894</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.013640895675352</v>
+        <v>1</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>1</v>
@@ -5658,28 +5658,28 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>2.685169842584921</v>
+        <v>2.535292502059874</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.322795994502258</v>
+        <v>2.348282959592677</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>2.232256833266185</v>
+        <v>1.318817179499008</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1</v>
+        <v>1.134462012033021</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.01967303435894</v>
+        <v>1</v>
       </c>
       <c r="H49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1</v>
+        <v>1.02898371978293</v>
       </c>
       <c r="J49" s="4" t="n">
         <v>1</v>
@@ -5733,19 +5733,19 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>2.535292502059874</v>
+        <v>119.3368700265252</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>2.348282959592677</v>
+        <v>1.318104023116248</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.318817179499008</v>
+        <v>1.01483942227431</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1</v>
+        <v>2.380640229971005</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.134462012033021</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>1</v>
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.02898371978293</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="n">
         <v>1</v>
@@ -5808,16 +5808,16 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>119.3368700265252</v>
+        <v>9.634663536776213</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.318104023116248</v>
+        <v>1</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.01483942227431</v>
+        <v>1.034394263020685</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>2.380640229971005</v>
+        <v>1.067333511298149</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>1</v>
@@ -5883,19 +5883,19 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>9.634663536776213</v>
+        <v>2.450644427596664</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1</v>
+        <v>1.440787031308006</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.034394263020685</v>
+        <v>1.063901056428755</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.067333511298149</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1</v>
+        <v>1.002421893921046</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>1</v>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>2.450644427596664</v>
+        <v/>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.440787031308006</v>
+        <v>1.154264842798825</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.063901056428755</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.002421893921046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6036,22 +6036,22 @@
         <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.154264842798825</v>
+        <v>1.173243964161138</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.06494112160429</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,19 +6108,19 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v/>
+        <v>18.22928338489841</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.173243964161138</v>
+        <v>1.341993724885782</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.06494112160429</v>
+        <v>1.086296828001094</v>
       </c>
       <c r="E55" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1</v>
+        <v>1.016447088956505</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>1</v>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>18.22928338489841</v>
+        <v/>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.341993724885782</v>
+        <v>1.012329911304186</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.086296828001094</v>
+        <v>1</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.016447088956505</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,10 +6258,10 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v/>
+        <v>27.04578422484134</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.012329911304186</v>
+        <v>1.167356653202152</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>27.04578422484134</v>
+        <v>5.435836782968657</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.167356653202152</v>
+        <v>1</v>
       </c>
       <c r="D58" s="4" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>5.435836782968657</v>
+        <v>3.859186505818299</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>1</v>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>3.859186505818299</v>
+        <v>2.526591972769821</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07636290996996678</v>
+        <v>0.08101410078664845</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.06214402029746731</v>
+        <v>0.06008786157366396</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.06995979754219074</v>
+        <v>0.08390270434082496</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.12572812425559</v>
+        <v>0.235427504247767</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.02970225324481433</v>
+        <v>0.03196017904835274</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.02176321615225114</v>
+        <v>0.02453439072870248</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.0608155577414959</v>
+        <v>0.07594460576693439</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.07529614284674056</v>
+        <v>0.239053035339167</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.0898973634905272</v>
+        <v>0.123715224875874</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>8.015970713653552</v>
+        <v>7.652479738549816</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>9.276970137950496</v>
+        <v>9.930183091447551</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>11.57195669395299</v>
+        <v>9.864219348274291</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>7.230190325571248</v>
+        <v>3.913898714519887</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>17.84013556378316</v>
+        <v>16.66217067216675</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>21.24585902600773</v>
+        <v>21.22823926269494</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>13.64252272463168</v>
+        <v>11.41933657425931</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>12.11360250454277</v>
+        <v>3.940538420518925</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>9.401073509762121</v>
+        <v>6.889059031397089</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.6121228499286165</v>
+        <v>0.6199587648066599</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5765082205517937</v>
+        <v>0.5966834670000389</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.8095717474759504</v>
+        <v>0.827634679531303</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.9090382676449864</v>
+        <v>0.9214394062379603</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.5298922244373059</v>
+        <v>0.5325259580166612</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.4623782223232623</v>
+        <v>0.5208219165533406</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.8296776284995077</v>
+        <v>0.867237014252058</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.9121075445706864</v>
+        <v>0.9419976702956558</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.8564266382540259</v>
+        <v>0.8720216186312786</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.163797665177797</v>
+        <v>1.159255032496002</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.189990803695282</v>
+        <v>1.172485965243371</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.161634152939234</v>
+        <v>1.15192972252842</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.039586625763069</v>
+        <v>1.075313018554835</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.252630027289718</v>
+        <v>1.246434848039361</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.300300973073032</v>
+        <v>1.273263258739273</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.141531516058681</v>
+        <v>1.115820708925543</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.059895521502113</v>
+        <v>1.055785551067384</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.100610389351151</v>
+        <v>1.113621370541627</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.7123871435489031</v>
+        <v>0.7186903180421259</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.6860394807113662</v>
+        <v>0.6996029907503019</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.9404261911227609</v>
+        <v>0.9533769867473917</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.9450240253505571</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.6637589115575119</v>
+        <v>0.6637589115575122</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.6012308524147165</v>
+        <v>0.6631434106935401</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.9471031611010139</v>
+        <v>0.9676810200492029</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.9667387016187593</v>
+        <v>0.9945475294372909</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.9427195021274652</v>
+        <v>0.9717455319907154</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.233366635197932</v>
+        <v>1.229735745092967</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.250835813115375</v>
+        <v>1.246163311977731</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.042987864175082</v>
+        <v>1.039861427819681</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.042699107186649</v>
+        <v>1</v>
       </c>
       <c r="R4" s="22" t="n">
         <v>1.306633043939665</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.323237928625977</v>
+        <v>1.316724930168167</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.03585650100569</v>
+        <v>1.025206324934231</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.028765609333698</v>
+        <v>1</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.042843485680865</v>
+        <v>1.019930713909841</v>
       </c>
     </row>
     <row r="5">
@@ -6895,44 +6895,44 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.8786345341971767</v>
+        <v>0.8837991737486355</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.8581227516848513</v>
+        <v>0.8718195800229223</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.9808531044934358</v>
+        <v>0.9913799546895679</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9853757075029587</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.8672893270504709</v>
+        <v>0.8672893270504712</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7955714677752802</v>
+        <v>0.8731774611369318</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.9810629665495246</v>
+        <v>0.9920727022732508</v>
       </c>
       <c r="I5" s="34" t="n">
         <v>0.9945475294372909</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.9831092046864637</v>
+        <v>0.991107797320178</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.111737937534328</v>
+        <v>1.108037229488079</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.136168163638049</v>
+        <v>1.130982915271921</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.011693466466503</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="22" t="n">
         <v>1</v>
@@ -6944,13 +6944,13 @@
         <v>1.120664478439096</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.011222251883025</v>
+        <v>1</v>
       </c>
       <c r="U5" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.005846733233252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6959,22 +6959,22 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.976811344894804</v>
+        <v>0.9792823879042912</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9749717509578073</v>
+        <v>0.9860130502054665</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.9923226773793956</v>
+        <v>0.9913799546895679</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9853757075029587</v>
+        <v>0.9908357893371157</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.9333847045058434</v>
+        <v>0.9333847045058437</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8915686839954107</v>
+        <v>0.9785389640697939</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0.9920727022732508</v>
@@ -6983,29 +6983,29 @@
         <v>0.9945475294372909</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.9888369912908822</v>
+        <v>0.991107797320178</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.016708862092016</v>
+        <v>1.014655159977033</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.017947774501783</v>
+        <v>1.006906824732893</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.00661330491376</v>
+        <v>1.007125557800309</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.014841336543703</v>
+        <v>1.009248970173973</v>
       </c>
       <c r="R6" s="22" t="n">
         <v>1.064843534710119</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.111914283004398</v>
+        <v>1.013089913038174</v>
       </c>
       <c r="T6" s="22" t="n">
         <v>1.003144830479592</v>
@@ -7014,7 +7014,7 @@
         <v>1.005482362985502</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.010727320728732</v>
+        <v>1.008187263987141</v>
       </c>
     </row>
     <row r="7">
@@ -7023,22 +7023,22 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.9931327509465679</v>
+        <v>0.9936339279617195</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.9924703240896061</v>
+        <v>0.9928232695275808</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="E7" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.993908667990362</v>
+        <v>0.9939086679903623</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.9913479540139322</v>
+        <v>0.9913479540139319</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7047,17 +7047,17 @@
         <v>1</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.002463441094223</v>
+        <v>1.001968962198018</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.002758055932385</v>
+        <v>1.002386725651792</v>
       </c>
       <c r="P7" s="22" t="n">
         <v>1</v>
@@ -7087,22 +7087,22 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.9955792749772683</v>
+        <v>0.9955903556045447</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.9952076127546776</v>
+        <v>0.9951928662926579</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="E8" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.9969836204203297</v>
+        <v>0.99698362042033</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.9959484991620632</v>
+        <v>0.995948499162063</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7111,17 +7111,17 @@
         <v>1</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.002845030351685</v>
+        <v>1.002839873007892</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.003150062790273</v>
+        <v>1.003136869451788</v>
       </c>
       <c r="P8" s="22" t="n">
         <v>1</v>
@@ -7151,22 +7151,22 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9984117282320872</v>
+        <v>0.9984177057823436</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9983425792242128</v>
+        <v>0.9983146563935685</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9988852098177438</v>
+        <v>0.9984440898587762</v>
       </c>
       <c r="E9" s="34" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9977836056883409</v>
+        <v>0.9977836056883411</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9970806349599876</v>
+        <v>0.9970806349599873</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0.9951926027453307</v>
@@ -7175,20 +7175,20 @@
         <v>1</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.999442294046311</v>
+        <v>0.9992214392441001</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.000787049518811</v>
+        <v>1.000787022501308</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.000828593893792</v>
+        <v>1.000859569246076</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.001116034326366</v>
+        <v>1.001558334770096</v>
       </c>
       <c r="Q9" s="22" t="n">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000558017163183</v>
+        <v>1.000779167385048</v>
       </c>
     </row>
     <row r="10">
@@ -7215,10 +7215,10 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.999197527702368</v>
+        <v>0.9992034829824988</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9991697997892703</v>
+        <v>0.9991727769701108</v>
       </c>
       <c r="D10" s="34" t="n">
         <v>1</v>
@@ -7227,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9995910732152955</v>
+        <v>0.9995910732152957</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9994888937703764</v>
+        <v>0.9994888937703762</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>1</v>
@@ -7246,10 +7246,10 @@
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.000803116776597</v>
+        <v>1.000797151962605</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.000830890015796</v>
+        <v>1.000827907894366</v>
       </c>
       <c r="P10" s="22" t="n">
         <v>1</v>
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v/>
+        <v>34.34</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>143.83</v>
+        <v>72.7</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>160.76</v>
+        <v>117.96</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>34.34</v>
+        <v/>
       </c>
       <c r="T9" s="22" t="n">
-        <v>72.7</v>
+        <v>124.57</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>117.96</v>
+        <v>124.57</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>117.96</v>
+        <v>131.61</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>117.96</v>
+        <v>131.61</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>117.96</v>
+        <v>112.51</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v/>
+        <v>11</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>124.57</v>
+        <v>169.14</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>124.57</v>
+        <v>207.59</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>131.61</v>
+        <v>207.59</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>131.61</v>
+        <v>207.59</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>112.51</v>
+        <v>207.59</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>1976.403333333333</v>
+        <v>1722.403333333333</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>11</v>
+        <v/>
       </c>
       <c r="T11" s="22" t="n">
-        <v>169.14</v>
+        <v>160.47</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>207.59</v>
+        <v>197.18</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>207.59</v>
+        <v>569.98</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9123,61 +9123,61 @@
         <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>160.47</v>
+        <v>136.83</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>197.18</v>
+        <v>136.83</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>569.98</v>
+        <v>136.83</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>275.55</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>136.83</v>
+        <v>1481.21</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>136.83</v>
+        <v>1531.84</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>136.83</v>
+        <v>1541.24</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>275.55</v>
+        <v/>
       </c>
       <c r="T14" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="U14" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1481.21</v>
+        <v/>
       </c>
       <c r="W14" s="22" t="n">
-        <v>1481.21</v>
+        <v>102.64</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>1531.84</v>
+        <v>224.36</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>1541.24</v>
+        <v>224.36</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9510,46 +9510,46 @@
         <v/>
       </c>
       <c r="V15" s="22" t="n">
-        <v/>
+        <v>188.43</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>102.64</v>
+        <v>188.43</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>224.36</v>
+        <v>188.43</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v/>
+        <v>242.08</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>188.43</v>
+        <v>261</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>188.43</v>
+        <v>270.4</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>1722.403333333333</v>
+        <v>1716.74</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>634.33</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>242.08</v>
+        <v>840.1400000000001</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>261</v>
+        <v>2508.03</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>261</v>
+        <v>2508.03</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>261</v>
+        <v>2517.43</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>270.4</v>
+        <v>2517.43</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>270.4</v>
+        <v>2551.77</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>132.77</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>634.33</v>
+        <v>356.51</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>840.1400000000001</v>
+        <v>471.59</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>2508.03</v>
+        <v>1052.71</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>2508.03</v>
+        <v>1052.71</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>2517.43</v>
+        <v>1052.71</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>2517.43</v>
+        <v>1073.42</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>2551.77</v>
+        <v>1073.42</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>132.77</v>
+        <v>36.41</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>356.51</v>
+        <v>92.31</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>471.59</v>
+        <v>216.77</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1052.71</v>
+        <v>285.88</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>1052.71</v>
+        <v>285.88</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>1052.71</v>
+        <v>324.32</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>1073.42</v>
+        <v>324.32</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>1073.42</v>
+        <v>324.32</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>1073.42</v>
+        <v>333.72</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>36.41</v>
+        <v>7.54</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>92.31</v>
+        <v>899.8</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>216.77</v>
+        <v>1186.03</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>285.88</v>
+        <v>1203.63</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>285.88</v>
+        <v>2865.41</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>324.32</v>
+        <v>2865.41</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>333.72</v>
+        <v>2865.41</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>7.54</v>
+        <v>127.8</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>899.8</v>
+        <v>1231.31</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1186.03</v>
+        <v>1231.31</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1203.63</v>
+        <v>1273.66</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>2865.41</v>
+        <v>1359.42</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>127.8</v>
+        <v>65.95</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>1231.31</v>
+        <v>161.62</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>1231.31</v>
+        <v>232.86</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>1273.66</v>
+        <v>247.74</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>1359.42</v>
+        <v>247.74</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>1359.42</v>
+        <v>248.34</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>65.95</v>
+        <v/>
       </c>
       <c r="T23" s="22" t="n">
-        <v>161.62</v>
+        <v>139.63</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>232.86</v>
+        <v>161.17</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>247.74</v>
+        <v>161.17</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>247.74</v>
+        <v>161.17</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>248.34</v>
+        <v>161.17</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10697,25 +10697,25 @@
         <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>139.63</v>
+        <v>146.21</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>161.17</v>
+        <v>171.54</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>161.17</v>
+        <v>182.68</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>182.68</v>
+        <v>3230.34</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v/>
+        <v>119.59</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>146.21</v>
+        <v>2180.04</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>171.54</v>
+        <v>2925.6</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>182.68</v>
+        <v>3178.07</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>182.68</v>
+        <v>3178.07</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>182.68</v>
+        <v>3230.34</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>182.68</v>
+        <v>3230.34</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>3230.34</v>
+        <v>2290.69</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>1716.74</v>
+        <v>1454.74</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>119.59</v>
+        <v/>
       </c>
       <c r="T26" s="22" t="n">
-        <v>2180.04</v>
+        <v>2262.79</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>2925.6</v>
+        <v>2290.69</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>3178.07</v>
+        <v>2290.69</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>3178.07</v>
+        <v>2290.69</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>3230.34</v>
+        <v>2290.69</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v/>
+        <v>22.06</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>2262.79</v>
+        <v>596.63</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>2290.69</v>
+        <v>696.48</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>696.4799999999999</v>
+        <v>367.68</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>1454.74</v>
+        <v>1451.2</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>22.06</v>
+        <v>67.64</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>596.6299999999999</v>
+        <v>367.68</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>696.4799999999999</v>
+        <v>367.68</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>696.4799999999999</v>
+        <v>367.68</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>367.68</v>
+        <v>361.49</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>67.64</v>
+        <v>93.67</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>367.68</v>
+        <v>361.49</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>367.68</v>
+        <v>361.49</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>361.49</v>
+        <v>178.15</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>93.67</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>361.49</v>
+        <v>178.15</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>70.51000000000001</v>
+        <v>74.48</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>70.51000000000001</v>
+        <v>74.48</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
